--- a/DysonRecipe/DysonRecipe/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipe/DysonRecipe/bin/Debug/data/Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipe\DysonRecipe\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipe\DysonRecipe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124BCC6C-8EC9-4949-93E5-D66E9F3901E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB485288-BBF3-4E1C-90C1-A6B28234B41E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="5760" windowWidth="25380" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="6705" windowWidth="25380" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁矿:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,234 @@
   </si>
   <si>
     <t>磁铁:2|铜块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯硅块</t>
+  </si>
+  <si>
+    <t>钛块</t>
+  </si>
+  <si>
+    <t>石材</t>
+  </si>
+  <si>
+    <t>高能石墨</t>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅石:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛石:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矿:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤矿:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高能石墨:1|精炼油:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸:1|高能石墨:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机晶体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液氢燃料棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氘核燃料棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造台</t>
+  </si>
+  <si>
+    <t>制造台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电弧熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛化玻璃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石（高效）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛晶石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加力推进器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异物质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型粒子对撞器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>钛合金</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机晶体（原始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯硅块:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矿:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高能石墨:1</t>
+  </si>
+  <si>
+    <t>塑料:2|精炼油:2|水:1</t>
+  </si>
+  <si>
+    <t>钛块:1|氢:5</t>
+  </si>
+  <si>
+    <t>钛合金:1|重氢:10|超级磁场环:1</t>
+  </si>
+  <si>
+    <t>铁块:3</t>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:2|磁线圈:1</t>
+  </si>
+  <si>
+    <t>分型硅石:1</t>
+  </si>
+  <si>
+    <t>玻璃:2|钛块:2|水:2</t>
+  </si>
+  <si>
+    <t>玻璃:3</t>
+  </si>
+  <si>
+    <t>金伯利矿石:1</t>
+  </si>
+  <si>
+    <t>有机晶体:1|钛块:3</t>
+  </si>
+  <si>
+    <t>钛合金:5|电磁涡轮:5</t>
+  </si>
+  <si>
+    <t>粒子容器:2|铁块:2|重氢:10</t>
+  </si>
+  <si>
+    <t>硫酸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水:4|石矿:8|精炼油:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛块:4|钢材:4|硫酸:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材:10|植物染料:20|水:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材:2|铜块:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +339,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,9 +370,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,16 +659,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -444,30 +683,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -478,62 +717,562 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
